--- a/segmentfault/思否测试用例.xlsx
+++ b/segmentfault/思否测试用例.xlsx
@@ -315,6 +315,9 @@
     <t>轮播图依次跳转</t>
   </si>
   <si>
+    <t>手工</t>
+  </si>
+  <si>
     <t>SF-UI-021</t>
   </si>
   <si>
@@ -619,9 +622,6 @@
   </si>
   <si>
     <t>标题栏出现红框，提示需要填写标题</t>
-  </si>
-  <si>
-    <t>手工</t>
   </si>
   <si>
     <t>SF-ARTICLE-002</t>
@@ -1043,10 +1043,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1081,22 +1081,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,14 +1178,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1217,31 +1217,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,12 +1284,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,6 +1361,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1374,30 +1398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,26 +1426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,6 +1452,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,17 +1500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,145 +1531,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2043,9 +2043,9 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2817,18 +2817,18 @@
         <v>21</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>15</v>
@@ -2837,34 +2837,34 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>15</v>
@@ -2879,46 +2879,46 @@
         <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -2930,31 +2930,31 @@
     </row>
     <row r="25" ht="54" spans="1:12">
       <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -2966,31 +2966,31 @@
     </row>
     <row r="26" ht="40.5" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
@@ -3002,31 +3002,31 @@
     </row>
     <row r="27" ht="27" spans="1:12">
       <c r="A27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -3038,31 +3038,31 @@
     </row>
     <row r="28" ht="27" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -3074,31 +3074,31 @@
     </row>
     <row r="29" ht="27" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
@@ -3110,31 +3110,31 @@
     </row>
     <row r="30" ht="40.5" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
@@ -3146,31 +3146,31 @@
     </row>
     <row r="31" ht="40.5" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
@@ -3182,29 +3182,29 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -3216,31 +3216,31 @@
     </row>
     <row r="33" ht="40.5" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -3252,31 +3252,31 @@
     </row>
     <row r="34" ht="40.5" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
@@ -3288,31 +3288,31 @@
     </row>
     <row r="35" ht="40.5" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
@@ -3324,31 +3324,31 @@
     </row>
     <row r="36" ht="40.5" spans="1:12">
       <c r="A36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
@@ -3360,31 +3360,31 @@
     </row>
     <row r="37" ht="40.5" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
@@ -3396,31 +3396,31 @@
     </row>
     <row r="38" ht="40.5" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
@@ -3432,31 +3432,31 @@
     </row>
     <row r="39" ht="40.5" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
@@ -3468,31 +3468,31 @@
     </row>
     <row r="40" ht="40.5" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
@@ -3504,31 +3504,31 @@
     </row>
     <row r="41" ht="27" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
@@ -3540,31 +3540,31 @@
     </row>
     <row r="42" ht="27" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
@@ -3576,31 +3576,31 @@
     </row>
     <row r="43" ht="27" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
@@ -3612,13 +3612,13 @@
     </row>
     <row r="44" ht="27" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
@@ -3627,23 +3627,23 @@
         <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:12">
@@ -3651,7 +3651,7 @@
         <v>202</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>203</v>
@@ -3663,7 +3663,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>204</v>
@@ -3679,7 +3679,7 @@
         <v>21</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:12">
@@ -3687,7 +3687,7 @@
         <v>207</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>208</v>
@@ -3699,7 +3699,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>209</v>
@@ -3715,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" ht="40.5" spans="1:12">
@@ -3723,7 +3723,7 @@
         <v>210</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>211</v>
@@ -3735,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>212</v>
@@ -3751,7 +3751,7 @@
         <v>21</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" ht="40.5" spans="1:12">
@@ -3759,7 +3759,7 @@
         <v>213</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>214</v>
@@ -3771,7 +3771,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>215</v>
@@ -3787,7 +3787,7 @@
         <v>21</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:12">
@@ -3795,7 +3795,7 @@
         <v>217</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>218</v>
@@ -3807,7 +3807,7 @@
         <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>219</v>
@@ -3823,7 +3823,7 @@
         <v>21</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" ht="40.5" spans="1:12">
@@ -3859,7 +3859,7 @@
         <v>21</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" ht="27" spans="1:12">
@@ -3895,7 +3895,7 @@
         <v>21</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" ht="40.5" spans="1:12">
@@ -3915,7 +3915,7 @@
         <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>234</v>
@@ -3931,7 +3931,7 @@
         <v>21</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" ht="40.5" spans="1:12">
@@ -3967,7 +3967,7 @@
         <v>21</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:12">
@@ -3987,7 +3987,7 @@
         <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>243</v>
@@ -4003,7 +4003,7 @@
         <v>21</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" ht="27" spans="1:12">
@@ -4039,7 +4039,7 @@
         <v>21</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:12">
@@ -4059,7 +4059,7 @@
         <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>252</v>
@@ -4075,7 +4075,7 @@
         <v>21</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="1:12">
@@ -4111,7 +4111,7 @@
         <v>21</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:12">
@@ -4147,7 +4147,7 @@
         <v>21</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" ht="40.5" spans="1:12">
@@ -4167,7 +4167,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>268</v>
@@ -4183,7 +4183,7 @@
         <v>21</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" ht="54" spans="1:12">
@@ -4203,7 +4203,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>273</v>
@@ -4219,7 +4219,7 @@
         <v>21</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" ht="175.5" spans="1:12">
@@ -4239,7 +4239,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>278</v>
@@ -4255,7 +4255,7 @@
         <v>21</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="54" spans="1:12">
@@ -4275,7 +4275,7 @@
         <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>282</v>
@@ -4291,7 +4291,7 @@
         <v>21</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" ht="54" spans="1:12">
@@ -4311,7 +4311,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>286</v>
@@ -4327,7 +4327,7 @@
         <v>21</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:12">
@@ -4347,7 +4347,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
@@ -4361,7 +4361,7 @@
         <v>21</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" ht="27" spans="1:12">
@@ -4381,7 +4381,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>18</v>
@@ -4397,7 +4397,7 @@
         <v>21</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4417,7 +4417,7 @@
         <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>18</v>
@@ -4433,7 +4433,7 @@
         <v>21</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4453,7 +4453,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>18</v>
@@ -4469,7 +4469,7 @@
         <v>21</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" ht="67.5" spans="1:12">
@@ -4489,7 +4489,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>307</v>
@@ -4505,7 +4505,7 @@
         <v>21</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" ht="67.5" spans="1:12">
@@ -4541,7 +4541,7 @@
         <v>21</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" ht="67.5" spans="1:12">
@@ -4561,7 +4561,7 @@
         <v>16</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>18</v>
@@ -4577,7 +4577,7 @@
         <v>21</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:12">

--- a/segmentfault/思否测试用例.xlsx
+++ b/segmentfault/思否测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349">
   <si>
     <t>用例编号</t>
   </si>
@@ -976,6 +976,33 @@
   </si>
   <si>
     <t>在草稿箱中有被保存的文章</t>
+  </si>
+  <si>
+    <t>SF-ARTICLE-028</t>
+  </si>
+  <si>
+    <t>正文多行加粗</t>
+  </si>
+  <si>
+    <t>两行文字</t>
+  </si>
+  <si>
+    <t>选中两行文字，点击加粗按钮</t>
+  </si>
+  <si>
+    <t>两行文字被加粗</t>
+  </si>
+  <si>
+    <t>SF-ARTICLE-029</t>
+  </si>
+  <si>
+    <t>正文多行斜体</t>
+  </si>
+  <si>
+    <t>选中两行文字，点击斜体按钮</t>
+  </si>
+  <si>
+    <t>两行文字被倾斜</t>
   </si>
   <si>
     <t>SF-SEARCH-001</t>
@@ -1043,10 +1070,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1081,7 +1108,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,29 +1220,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1217,31 +1244,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,6 +1311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,36 +1394,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1398,6 +1401,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,17 +1453,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1452,15 +1488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,17 +1527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,145 +1558,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2040,12 +2067,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4580,105 +4607,105 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" ht="27" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" ht="27" spans="1:12">
       <c r="A72" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" ht="27" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
@@ -4690,27 +4717,27 @@
     </row>
     <row r="74" ht="27" spans="1:12">
       <c r="A74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="5" t="s">
         <v>338</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -4724,18 +4751,90 @@
         <v>22</v>
       </c>
     </row>
+    <row r="75" ht="27" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" ht="27" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37 E38 E42 E43 E2:E3 E4:E12 E13:E23 E24:E30 E31:E34 E35:E36 E39:E41 E44:E69 E70:E79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37 E38 E42 E43 E2:E3 E4:E12 E13:E23 E24:E30 E31:E34 E35:E36 E39:E41 E44:E69 E70:E72 E73:E81">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D4:D17 D18:D34 D35:D36 D37:D38 D39:D47 D48:D55 D56:D59 D60:D64 D65:D68 D69:D79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69 D2:D3 D4:D17 D18:D34 D35:D36 D37:D38 D39:D47 D48:D55 D56:D59 D60:D64 D65:D68 D70:D72 D73:D81">
       <formula1>"性能,功能"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D80:D1048576">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D82:D1048576">
       <formula1>"性能,功能"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 L7:L43 L44:L70 L71:L74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 L7:L43 L44:L69 L70:L72 L73:L76">
       <formula1>"手工,自动化"</formula1>
     </dataValidation>
   </dataValidations>

--- a/segmentfault/思否测试用例.xlsx
+++ b/segmentfault/思否测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413">
   <si>
     <t>用例编号</t>
   </si>
@@ -81,6 +81,9 @@
     <t>跳转到首页</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>顾金鑫</t>
   </si>
   <si>
@@ -351,7 +354,7 @@
     <t>注册</t>
   </si>
   <si>
-    <t>输入名字，输入正确的没注册过的手机号，输入大于6位的密码</t>
+    <t>输入2-8 个汉字 或 4-16 字母的名字，输入正确的没注册过的手机号，输入大于6位的密码</t>
   </si>
   <si>
     <t>高</t>
@@ -360,7 +363,10 @@
     <t>在注册页面</t>
   </si>
   <si>
-    <t>名字，正确的没注册过的手机号，大于6位的密码</t>
+    <t>名字：test123，手机号：，密码：test1234</t>
+  </si>
+  <si>
+    <t>输入名字，输入正确的没注册过的手机号，输入验证码，输入大于6位的密码</t>
   </si>
   <si>
     <t>注册成功</t>
@@ -369,10 +375,13 @@
     <t>SF-SP-002</t>
   </si>
   <si>
-    <t>输入名字，输入正确的没注册过的邮箱，输入大于6位的密码</t>
-  </si>
-  <si>
-    <t>名字，正确的没注册过的邮箱，大于6位的密码</t>
+    <t>输入2-8 个汉字 或 4-16 字母的名字，输入正确的没注册过的邮箱，输入大于6位的密码</t>
+  </si>
+  <si>
+    <t>名字：test123，邮箱：，密码：test1234</t>
+  </si>
+  <si>
+    <t>输入名字，输入正确的没注册过的邮箱，输入验证码，输入大于6位的密码</t>
   </si>
   <si>
     <t>SF-SP-003</t>
@@ -381,18 +390,96 @@
     <t>不输入名字注册</t>
   </si>
   <si>
-    <t>正确的手机号，密码test1234</t>
-  </si>
-  <si>
-    <t>不输入名字，输入手机号，密码，单击注册</t>
-  </si>
-  <si>
-    <t>注册失败</t>
+    <t>正确的手机号，验证码，密码test1234</t>
+  </si>
+  <si>
+    <t>不输入名字，输入手机号，输入验证码，密码，单击注册</t>
+  </si>
+  <si>
+    <t>注册失败，提示输入名字</t>
   </si>
   <si>
     <t>SF-SP-004</t>
   </si>
   <si>
+    <t>输入1个汉字的名字注册</t>
+  </si>
+  <si>
+    <t>名字：大，手机号：，密码：test1234</t>
+  </si>
+  <si>
+    <t>输入名字，手机号，密码，点击注册</t>
+  </si>
+  <si>
+    <t>注册失败，提示名字应为 2-8 个汉字 或 4-16 字母</t>
+  </si>
+  <si>
+    <t>SF-SP-005</t>
+  </si>
+  <si>
+    <t>输入2个汉字的名字注册</t>
+  </si>
+  <si>
+    <t>名字：测试，手机号：，密码：test1234</t>
+  </si>
+  <si>
+    <t>SF-SP-006</t>
+  </si>
+  <si>
+    <t>输入8个汉字的名字注册</t>
+  </si>
+  <si>
+    <t>名字：测试测试测试测试，手机号：，密码：test1234</t>
+  </si>
+  <si>
+    <t>SF-SP-007</t>
+  </si>
+  <si>
+    <t>输入9个汉字的名字注册</t>
+  </si>
+  <si>
+    <t>名字：测试测试测试测试测，手机号：，密码：test1235</t>
+  </si>
+  <si>
+    <t>SF-SP-008</t>
+  </si>
+  <si>
+    <t>输入3个字母的名字注册</t>
+  </si>
+  <si>
+    <t>名字：tes，手机号：，密码：test1234</t>
+  </si>
+  <si>
+    <t>SF-SP-009</t>
+  </si>
+  <si>
+    <t>输入4个字母的名字注册</t>
+  </si>
+  <si>
+    <t>名字：test，手机号：，密码：test1234</t>
+  </si>
+  <si>
+    <t>SF-SP-010</t>
+  </si>
+  <si>
+    <t>输入16个字母的名字注册</t>
+  </si>
+  <si>
+    <t>名字：testtesttesttest，手机号：，密码：test1234</t>
+  </si>
+  <si>
+    <t>SF-SP-011</t>
+  </si>
+  <si>
+    <t>输入17个字母的名字注册</t>
+  </si>
+  <si>
+    <t>名字：testtesttesttestt，手机号：，密码：test1234</t>
+  </si>
+  <si>
+    <t>SF-SP-012</t>
+  </si>
+  <si>
     <t>输入10位错误手机号注册</t>
   </si>
   <si>
@@ -402,7 +489,22 @@
     <t>输入10位错误手机号，单击注册</t>
   </si>
   <si>
-    <t>SF-SP-005</t>
+    <t>注册失败，提示电子邮箱格式错误，10位手机号被当成了邮箱</t>
+  </si>
+  <si>
+    <t>SF-SP-013</t>
+  </si>
+  <si>
+    <t>手机号中含有特殊字符注册</t>
+  </si>
+  <si>
+    <t>手机号：1388*&amp;+444747</t>
+  </si>
+  <si>
+    <t>注册失败，提示电子邮箱格式错误，11位手机号被当成了邮箱</t>
+  </si>
+  <si>
+    <t>SF-SP-014</t>
   </si>
   <si>
     <t>输入错误邮箱注册</t>
@@ -414,7 +516,10 @@
     <t>输入错误邮箱，单击注册</t>
   </si>
   <si>
-    <t>SF-SP-006</t>
+    <t>注册失败，提示邮箱格式错误</t>
+  </si>
+  <si>
+    <t>SF-SP-015</t>
   </si>
   <si>
     <t>不输入手机或邮箱注册</t>
@@ -426,7 +531,10 @@
     <t>输入名字，密码，单击注册</t>
   </si>
   <si>
-    <t>SF-SP-007</t>
+    <t>注册失败，提示填写手机号或邮箱</t>
+  </si>
+  <si>
+    <t>SF-SP-016</t>
   </si>
   <si>
     <t>输入5位密码注册</t>
@@ -438,7 +546,10 @@
     <t>输入名字，手机号和5位密码，单击注册</t>
   </si>
   <si>
-    <t>SF-SP-008</t>
+    <t>注册失败，提示需要至少6位的密码</t>
+  </si>
+  <si>
+    <t>SF-SP-017</t>
   </si>
   <si>
     <t>不输入密码注册</t>
@@ -450,7 +561,10 @@
     <t>输入名字，手机号，不输入名字单击注册</t>
   </si>
   <si>
-    <t>SF-SP-009</t>
+    <t>注册失败，提示需要填写密码</t>
+  </si>
+  <si>
+    <t>SF-SP-018</t>
   </si>
   <si>
     <t>全部不输入注册</t>
@@ -459,7 +573,10 @@
     <t>单击注册</t>
   </si>
   <si>
-    <t>SF-SP-010</t>
+    <t>注册失败，提示填写名字</t>
+  </si>
+  <si>
+    <t>SF-SP-019</t>
   </si>
   <si>
     <t>输入注册过的手机号注册</t>
@@ -471,7 +588,10 @@
     <t>输入名字，注册过的手机号，密码，单击注册</t>
   </si>
   <si>
-    <t>SF-SP-011</t>
+    <t>注册失败，提示用户名已存在</t>
+  </si>
+  <si>
+    <t>SF-SP-020</t>
   </si>
   <si>
     <t>输入注册过的邮箱注册</t>
@@ -483,6 +603,24 @@
     <t>输入名字，注册过的邮箱，密码，单击注册</t>
   </si>
   <si>
+    <t>SF-SP-021</t>
+  </si>
+  <si>
+    <t>输入不存在的但是格式正确的邮箱注册</t>
+  </si>
+  <si>
+    <t>名字：test，邮箱：qpoi@jis.op，密码：test1236</t>
+  </si>
+  <si>
+    <t>输入名字，邮箱，密码，单击注册</t>
+  </si>
+  <si>
+    <t>需要验证邮箱验证码后才能注册成功</t>
+  </si>
+  <si>
+    <t>直接注册成功</t>
+  </si>
+  <si>
     <t>SF-LI-001</t>
   </si>
   <si>
@@ -558,6 +696,9 @@
     <t>输入已注册的邮箱，错误的密码，单击登录</t>
   </si>
   <si>
+    <t>登录失败，名字或密码错误</t>
+  </si>
+  <si>
     <t>SF-LI-006</t>
   </si>
   <si>
@@ -579,7 +720,10 @@
     <t>输入10位手机号，单击登录</t>
   </si>
   <si>
-    <t>登录失败，提示手机号错误</t>
+    <t>登录失败，提示电子邮箱格式错误</t>
+  </si>
+  <si>
+    <t>用户不存在</t>
   </si>
   <si>
     <t>SF-LI-008</t>
@@ -588,12 +732,12 @@
     <t>输入错误的邮箱登录</t>
   </si>
   <si>
+    <t>邮箱123@error</t>
+  </si>
+  <si>
     <t>输入错误格式的邮箱，单击登录</t>
   </si>
   <si>
-    <t>登录失败，提示邮箱错误</t>
-  </si>
-  <si>
     <t>SF-LI-009</t>
   </si>
   <si>
@@ -870,19 +1014,22 @@
     <t>提示无法插入图片</t>
   </si>
   <si>
+    <t>没有提示信息</t>
+  </si>
+  <si>
     <t>SF-ARTICLE-020</t>
   </si>
   <si>
     <t>正文图片插入（本地非照片文件）</t>
   </si>
   <si>
-    <t>test.txt</t>
+    <t>某一test.txt文件</t>
   </si>
   <si>
     <t>点击图片按钮，在本地上传中选择test.txt文件，点击上传</t>
   </si>
   <si>
-    <t>提示文件格式错误</t>
+    <t>提示操作失败，上传的文件不是合法的图片</t>
   </si>
   <si>
     <t>SF-ARTICLE-021</t>
@@ -963,6 +1110,9 @@
     <t>第一次重做，文本被选中，第二次重做文本被加粗，第三次重做文本变成斜体</t>
   </si>
   <si>
+    <t>第一次重做后文本没有被选中</t>
+  </si>
+  <si>
     <t>SF-ARTICLE-027</t>
   </si>
   <si>
@@ -993,6 +1143,9 @@
     <t>两行文字被加粗</t>
   </si>
   <si>
+    <t>两行文字均没有被加粗</t>
+  </si>
+  <si>
     <t>SF-ARTICLE-029</t>
   </si>
   <si>
@@ -1005,6 +1158,24 @@
     <t>两行文字被倾斜</t>
   </si>
   <si>
+    <t>两行文字均没有被倾斜</t>
+  </si>
+  <si>
+    <t>SF-ARTICLE-030</t>
+  </si>
+  <si>
+    <t>正文无内容发布</t>
+  </si>
+  <si>
+    <t>标题：python实现链表，标签：python</t>
+  </si>
+  <si>
+    <t>输入标题，选择标签，点击发布</t>
+  </si>
+  <si>
+    <t>正文框变红，发布失败</t>
+  </si>
+  <si>
     <t>SF-SEARCH-001</t>
   </si>
   <si>
@@ -1023,6 +1194,9 @@
     <t>提示输入关键词</t>
   </si>
   <si>
+    <t>直接进入全部搜索界面，没有关键字也能搜索</t>
+  </si>
+  <si>
     <t>SF-SEARCH-002</t>
   </si>
   <si>
@@ -1063,6 +1237,24 @@
   </si>
   <si>
     <t>正确跳转到上一页</t>
+  </si>
+  <si>
+    <t>SF-SEARCH-005</t>
+  </si>
+  <si>
+    <t>缩小窗口下搜索</t>
+  </si>
+  <si>
+    <t>关键字：python</t>
+  </si>
+  <si>
+    <t>缩小窗口，输入关键词，点击搜索</t>
+  </si>
+  <si>
+    <t>跳转到搜索内容页面</t>
+  </si>
+  <si>
+    <t>点击无反应，按钮控件移位消失</t>
   </si>
 </sst>
 </file>
@@ -1070,17 +1262,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1093,37 +1293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,14 +1315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1164,38 +1326,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1229,6 +1359,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1244,31 +1429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,54 +1448,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,6 +1519,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1453,45 +1638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1503,26 +1649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,6 +1676,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1558,10 +1743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1570,150 +1755,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2067,12 +2255,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2128,7 +2316,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2155,23 +2343,25 @@
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
+      <c r="A3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2186,28 +2376,30 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
+      <c r="A4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -2222,28 +2414,30 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
+      <c r="A5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -2258,28 +2452,30 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
+      <c r="A6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -2294,28 +2490,30 @@
         <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
+      <c r="A7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -2330,28 +2528,30 @@
         <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
+      <c r="A8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -2366,28 +2566,30 @@
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2402,28 +2604,30 @@
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
+      <c r="A10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2438,28 +2642,30 @@
         <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
+      <c r="A11" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2474,28 +2680,30 @@
         <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
+      <c r="A12" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -2510,28 +2718,30 @@
         <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
+      <c r="A13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -2546,28 +2756,30 @@
         <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
+      <c r="A14" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -2582,28 +2794,30 @@
         <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
+      <c r="A15" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -2618,28 +2832,30 @@
         <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>74</v>
+      <c r="A16" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
@@ -2654,28 +2870,30 @@
         <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
+      <c r="A17" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -2690,28 +2908,30 @@
         <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>82</v>
+      <c r="A18" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>15</v>
@@ -2726,28 +2946,30 @@
         <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
+      <c r="A19" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
@@ -2762,28 +2984,30 @@
         <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="67.5" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>90</v>
+      <c r="A20" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -2792,34 +3016,36 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>95</v>
+      <c r="A21" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
@@ -2834,28 +3060,30 @@
         <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>100</v>
+      <c r="A22" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>15</v>
@@ -2864,34 +3092,36 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>105</v>
+      <c r="A23" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>15</v>
@@ -2906,313 +3136,331 @@
         <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" ht="54" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" ht="67.5" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" ht="67.5" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" ht="54" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" ht="54" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" ht="40.5" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="J29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" ht="27" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" ht="27" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:12">
-      <c r="A30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:12">
-      <c r="A31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:12">
+      <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>145</v>
@@ -3221,32 +3469,36 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" ht="40.5" spans="1:12">
-      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" ht="54" spans="1:12">
+      <c r="A33" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>148</v>
@@ -3255,430 +3507,454 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" ht="54" spans="1:12">
+      <c r="A34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="1:12">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" ht="40.5" spans="1:12">
-      <c r="A35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="J35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="1:12">
+      <c r="A36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:12">
-      <c r="A36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" ht="40.5" spans="1:12">
-      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:12">
+      <c r="A38" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:12">
-      <c r="A38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:12">
+      <c r="A39" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" ht="40.5" spans="1:12">
-      <c r="A39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" spans="1:12">
+      <c r="A40" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" ht="40.5" spans="1:12">
-      <c r="A40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:12">
+      <c r="A41" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="1:12">
-      <c r="A41" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="J41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" ht="40.5" spans="1:12">
+      <c r="A42" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:12">
-      <c r="A42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" ht="40.5" spans="1:12">
+      <c r="A43" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" ht="27" spans="1:12">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>194</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" ht="40.5" spans="1:12">
+      <c r="A44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="1:12">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:12">
       <c r="A45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>203</v>
@@ -3687,325 +3963,343 @@
         <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J45" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:12">
       <c r="A46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="40.5" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J47" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="40.5" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J48" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K48" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J49" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" ht="40.5" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" ht="27" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J51" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="K51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" ht="40.5" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" ht="40.5" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J53" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K53" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>15</v>
@@ -4014,34 +4308,36 @@
         <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" ht="40.5" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" ht="27" spans="1:12">
-      <c r="A55" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
@@ -4050,34 +4346,36 @@
         <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J55" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K55" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>15</v>
@@ -4086,10 +4384,10 @@
         <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>253</v>
@@ -4097,23 +4395,25 @@
       <c r="I56" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K56" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
@@ -4122,31 +4422,33 @@
         <v>16</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J57" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K57" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" ht="27" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>262</v>
@@ -4158,34 +4460,36 @@
         <v>16</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K58" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" ht="40.5" spans="1:12">
       <c r="A59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>15</v>
@@ -4194,34 +4498,36 @@
         <v>16</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="1:12">
+      <c r="A60" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" ht="54" spans="1:12">
-      <c r="A60" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>15</v>
@@ -4230,34 +4536,36 @@
         <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:12">
+      <c r="A61" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" ht="175.5" spans="1:12">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>15</v>
@@ -4266,31 +4574,33 @@
         <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G61" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="J61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:12">
+      <c r="A62" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" ht="54" spans="1:12">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>281</v>
@@ -4302,34 +4612,36 @@
         <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G62" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>282</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J62" s="1"/>
+        <v>284</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K62" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" ht="54" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" ht="40.5" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>15</v>
@@ -4338,23 +4650,25 @@
         <v>16</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K63" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:12">
@@ -4362,7 +4676,7 @@
         <v>289</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>290</v>
@@ -4374,32 +4688,36 @@
         <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="H64" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J64" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" ht="27" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>15</v>
@@ -4408,34 +4726,36 @@
         <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J65" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K65" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>15</v>
@@ -4444,34 +4764,36 @@
         <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J66" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K66" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" ht="40.5" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>15</v>
@@ -4480,34 +4802,36 @@
         <v>16</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J67" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" ht="67.5" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>15</v>
@@ -4516,34 +4840,36 @@
         <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J68" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K68" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" ht="67.5" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" ht="40.5" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>15</v>
@@ -4552,34 +4878,36 @@
         <v>16</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J69" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K69" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" ht="67.5" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" ht="54" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>15</v>
@@ -4588,34 +4916,36 @@
         <v>16</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J70" s="1"/>
+        <v>323</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K70" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" ht="27" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" ht="175.5" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>15</v>
@@ -4624,34 +4954,36 @@
         <v>16</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>322</v>
+        <v>247</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="H71" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K71" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" ht="27" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" ht="54" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>15</v>
@@ -4660,34 +4992,36 @@
         <v>16</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>322</v>
+        <v>247</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>327</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J72" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="K72" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" ht="54" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>15</v>
@@ -4696,34 +5030,36 @@
         <v>16</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J73" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K73" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" ht="27" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>15</v>
@@ -4732,34 +5068,36 @@
         <v>16</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>338</v>
+        <v>18</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J74" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K74" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" ht="27" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>15</v>
@@ -4768,34 +5106,36 @@
         <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J75" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K75" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" ht="27" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>15</v>
@@ -4804,43 +5144,504 @@
         <v>16</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J76" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K76" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" ht="67.5" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" ht="67.5" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" ht="67.5" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" ht="27" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" ht="27" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" ht="40.5" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" ht="27" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" ht="27" spans="1:12">
+      <c r="A86" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" ht="27" spans="1:12">
+      <c r="A87" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" ht="40.5" spans="1:12">
+      <c r="A88" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37 E38 E42 E43 E2:E3 E4:E12 E13:E23 E24:E30 E31:E34 E35:E36 E39:E41 E44:E69 E70:E72 E73:E81">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J20 J21 J22 J25 J26 J29 J30 J31 J32 J33 J37 J38 J39 J40 J47 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J65 J66 J67 J68 J69 J73 J74 J80 J83 J85 J86 J87 J2:J19 J23:J24 J27:J28 J34:J36 J41:J43 J45:J46 J48:J50 J63:J64 J70:J71 J75:J76 J77:J78">
+      <formula1>"pass,failed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47 E48 E52 E53 E2:E3 E4:E12 E13:E23 E24:E25 E26:E34 E35:E36 E37:E39 E40:E42 E43:E44 E45:E46 E49:E51 E54:E79 E80:E81 E82:E83 E84:E86 E87:E88 E89:E92">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69 D2:D3 D4:D17 D18:D34 D35:D36 D37:D38 D39:D47 D48:D55 D56:D59 D60:D64 D65:D68 D70:D72 D73:D81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D79 D2:D3 D4:D17 D18:D25 D26:D34 D35:D36 D37:D42 D43:D44 D45:D46 D47:D48 D49:D57 D58:D65 D66:D69 D70:D74 D75:D78 D80:D81 D82:D83 D84:D86 D87:D88 D89:D92">
       <formula1>"性能,功能"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D82:D1048576">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D93:D1048576">
       <formula1>"性能,功能"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 L7:L43 L44:L69 L70:L72 L73:L76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 L7:L25 L26:L34 L35:L36 L37:L42 L43:L44 L45:L53 L54:L79 L80:L81 L82:L83 L84:L86 L87:L88">
       <formula1>"手工,自动化"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G61" r:id="rId1" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1546847761634&amp;di=3d7ec60191b7c4687ba2b63e2cb3fadd&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.cbdio.com%2Fimage%2Fattachement%2Fjpg%2Fsite2%2F20170810%2Ff04da2247c301af63d0815.jpg"/>
-    <hyperlink ref="G62" r:id="rId2" display="http://baidu.com"/>
+    <hyperlink ref="G71" r:id="rId1" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1546847761634&amp;di=3d7ec60191b7c4687ba2b63e2cb3fadd&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.cbdio.com%2Fimage%2Fattachement%2Fjpg%2Fsite2%2F20170810%2Ff04da2247c301af63d0815.jpg"/>
+    <hyperlink ref="G72" r:id="rId2" display="http://baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
